--- a/DBFieldsDataType/sample.xlsx
+++ b/DBFieldsDataType/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\DBFieldsDataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEBC5E-18DF-4D11-A00F-BA685529C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC5A39-5434-49B1-8B90-582ECA865618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>od_260_280_glh</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
     <t>percentage_dna_glh</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -663,10 +663,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
